--- a/excel_example.xlsx
+++ b/excel_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/baseline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518BCC79-DA83-4E87-8895-240A004C761D}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480873F6-CEE0-474E-9B1F-FA80BE4DDE87}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
-    <t>Excel template for checking baseline tables for randomised trials</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Continuous variables, group sample size (N), mean and standard deviation</t>
+  </si>
+  <si>
+    <t>Excel example for checking baseline tables for randomised trials</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,45 +530,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <v>44</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8">
         <v>44</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="8">
         <v>44</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8">
         <v>44</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8">
         <v>44</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8">
         <v>44</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8">
         <v>44</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8">
         <v>44</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8">
         <v>44</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8">
         <v>44</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="8">
         <v>44</v>
@@ -822,29 +822,29 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
       <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="8">
         <v>31</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="8">
         <v>37</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="8">
         <v>10</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8">
         <v>34</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="8">
         <v>9</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="8">
         <v>35</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="8">
         <v>9</v>
